--- a/biology/Zoologie/Ginglymodi/Ginglymodi.xlsx
+++ b/biology/Zoologie/Ginglymodi/Ginglymodi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ginglymodes (Ginglymodi) sont des poissons d'eau douce pouvant atteindre une grande taille (6 m), aux écailles épaisses, losangiques et juxtaposées. ils possèdent un museau allongé pourvu de nombreuses dents. Ils sont ichtyophages (se nourrissent de poissons). Leur taille allongée et la position de leurs nageoires caudale, dorsale et anale (situées tout en arrière du corps) leur permet de faire des pointes de vitesse et ainsi d'attraper d'autres poissons.
 En cas de besoin, ils sont capables d'aspirer de l'air à la surface et leur vessie natatoire richement vascularisée sert alors de poumon.
@@ -515,7 +527,9 @@
           <t>Classification classique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Famille des Lepisosteidae
 Atractosteus
@@ -554,9 +568,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (30 juil. 2012)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (30 juil. 2012) :
 genre Kyphosichthys
 Lepisosteiformes
 genre Neosemionotus
